--- a/biology/Botanique/Armand_Millet/Armand_Millet.xlsx
+++ b/biology/Botanique/Armand_Millet/Armand_Millet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Armand Millet, né le 8 septembre 1845 à Bourg-la-Reine et mort le 9 août 1920 dans la même ville, est un horticulteur français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Armand Millet est le fils d'un couple d'horticulteurs, d'une famille qui, de 1838 à 1940, approvisionne le marché de Paris en violettes de leur production. Lui-même devient un des horticulteurs les plus connus de France. Passionné par les violettes, les fraisiers et les rosiers, il doit sa célébrité à ses créations de nouvelles variétés et ses publications.
 Dans sa jeunesse, il voyage en Belgique, aux Pays-Bas et en Angleterre, perfectionnant ses connaissances dans les grands établissements horticoles de ces nations.
@@ -546,7 +560,9 @@
           <t>Créations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Violettes
 Brune de Bourg-la-Reine, premier prix de la catégorie (1879) ;
@@ -586,7 +602,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1879 : premier prix pour sa création de violettes Brune de Bourg-la-Reine.
 Grand prix de Paris.
@@ -621,7 +639,9 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1905 : officier du Mérite agricole.
 1911 : chevalier de la Légion d'honneur à l'occasion de l'Exposition internationale de Bruxelles.</t>
@@ -652,7 +672,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La municipalité de Bourg-la-Reine donna le nom de rue Armand-Millet à une voie tracée en 1925 dans ses parcelles de culture, ainsi que celui de rue Varengue, en l'honneur de son épouse, à une autre voie de la ville.</t>
         </is>
@@ -682,7 +704,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Les Violettes, 1898 , réédité en 1999  par la Société nationale d'horticulture de France, coll. horticole art des jardins,  (ISBN 2-919911-12-0)
 De l'empyème gangréneux interlobaire, Éd. G. Steinheil, 1890, (ASIN B001BWAUDI)
